--- a/input/distinct-comments.xlsx
+++ b/input/distinct-comments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\wildlife-cameras\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EAE75F-70B8-4833-9FB4-7D32871E2ED8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156E01D8-338E-4296-88D5-8FA6AB792C5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23955" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="1231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="1232">
   <si>
     <t>NEEDS REVIEW: flagged for expert review; NEEDS REVIEW: flagged for expert review</t>
   </si>
@@ -3716,6 +3716,9 @@
   </si>
   <si>
     <t>NEEDS REVIEW: flagged for expert review; CONFIRM ID: special species</t>
+  </si>
+  <si>
+    <t>NEEDS REVIEW: flagged for expert review; There is a second bird to the right on the branch that sticks out from the tree. But the one that is unknown is on the left edge. Could be some leaves but I think its a bird; Unidentifiable bird</t>
   </si>
 </sst>
 </file>
@@ -4211,9 +4214,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4261,10 +4262,12 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4588,23 +4591,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1030"/>
+  <dimension ref="A1:B1049"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B271" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1018" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1017" sqref="B1017"/>
+      <selection pane="bottomRight" activeCell="B1034" sqref="B1034"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="77.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="120" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1028</v>
       </c>
@@ -4612,7 +4615,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>416</v>
       </c>
@@ -4620,7 +4623,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>575</v>
       </c>
@@ -4628,7 +4631,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
@@ -4636,7 +4639,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>255</v>
       </c>
@@ -4644,7 +4647,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -4652,7 +4655,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>162</v>
       </c>
@@ -4660,7 +4663,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>755</v>
       </c>
@@ -4668,7 +4671,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>103</v>
       </c>
@@ -4676,7 +4679,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>520</v>
       </c>
@@ -4684,7 +4687,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>677</v>
       </c>
@@ -4692,7 +4695,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>505</v>
       </c>
@@ -4700,7 +4703,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
@@ -4708,7 +4711,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
@@ -4716,7 +4719,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>195</v>
       </c>
@@ -4724,7 +4727,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>543</v>
       </c>
@@ -4732,7 +4735,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>379</v>
       </c>
@@ -4740,7 +4743,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>88</v>
       </c>
@@ -4748,7 +4751,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>89</v>
       </c>
@@ -4756,7 +4759,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>790</v>
       </c>
@@ -4764,7 +4767,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>234</v>
       </c>
@@ -4772,7 +4775,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>235</v>
       </c>
@@ -4780,7 +4783,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>885</v>
       </c>
@@ -4788,7 +4791,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>187</v>
       </c>
@@ -4796,7 +4799,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>91</v>
       </c>
@@ -4804,7 +4807,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
@@ -4812,7 +4815,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>75</v>
       </c>
@@ -4820,7 +4823,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>186</v>
       </c>
@@ -4828,7 +4831,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>634</v>
       </c>
@@ -4836,7 +4839,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>758</v>
       </c>
@@ -4844,7 +4847,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>613</v>
       </c>
@@ -4852,7 +4855,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>1024</v>
       </c>
@@ -4860,7 +4863,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>199</v>
       </c>
@@ -4868,7 +4871,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>250</v>
       </c>
@@ -4876,7 +4879,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>95</v>
       </c>
@@ -4884,7 +4887,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>96</v>
       </c>
@@ -4892,7 +4895,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>179</v>
       </c>
@@ -4900,7 +4903,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>157</v>
       </c>
@@ -4908,7 +4911,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>158</v>
       </c>
@@ -4916,7 +4919,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>655</v>
       </c>
@@ -4924,7 +4927,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>587</v>
       </c>
@@ -4932,7 +4935,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>939</v>
       </c>
@@ -4940,7 +4943,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>621</v>
       </c>
@@ -4948,7 +4951,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>441</v>
       </c>
@@ -4956,7 +4959,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>590</v>
       </c>
@@ -4964,7 +4967,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>521</v>
       </c>
@@ -4972,7 +4975,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>181</v>
       </c>
@@ -4980,7 +4983,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>1023</v>
       </c>
@@ -4988,7 +4991,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>756</v>
       </c>
@@ -4996,7 +4999,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>582</v>
       </c>
@@ -5004,7 +5007,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>683</v>
       </c>
@@ -5012,7 +5015,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>534</v>
       </c>
@@ -5020,7 +5023,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>682</v>
       </c>
@@ -5028,7 +5031,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>938</v>
       </c>
@@ -5036,7 +5039,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>14</v>
       </c>
@@ -5044,7 +5047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>858</v>
       </c>
@@ -5052,7 +5055,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>859</v>
       </c>
@@ -5060,7 +5063,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>394</v>
       </c>
@@ -5068,7 +5071,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>494</v>
       </c>
@@ -5076,7 +5079,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>496</v>
       </c>
@@ -5084,7 +5087,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>638</v>
       </c>
@@ -5092,7 +5095,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>146</v>
       </c>
@@ -5100,7 +5103,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>72</v>
       </c>
@@ -5108,7 +5111,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>73</v>
       </c>
@@ -5116,7 +5119,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>892</v>
       </c>
@@ -5124,7 +5127,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>887</v>
       </c>
@@ -5132,7 +5135,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>150</v>
       </c>
@@ -5140,7 +5143,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>145</v>
       </c>
@@ -5148,7 +5151,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>897</v>
       </c>
@@ -5156,7 +5159,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>619</v>
       </c>
@@ -5164,7 +5167,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>530</v>
       </c>
@@ -5172,7 +5175,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>827</v>
       </c>
@@ -5180,7 +5183,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>565</v>
       </c>
@@ -5188,7 +5191,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>691</v>
       </c>
@@ -5196,7 +5199,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>689</v>
       </c>
@@ -5204,7 +5207,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>693</v>
       </c>
@@ -5212,7 +5215,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>216</v>
       </c>
@@ -5220,7 +5223,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>259</v>
       </c>
@@ -5228,7 +5231,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>345</v>
       </c>
@@ -5236,7 +5239,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>344</v>
       </c>
@@ -5244,7 +5247,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>144</v>
       </c>
@@ -5252,7 +5255,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>736</v>
       </c>
@@ -5260,7 +5263,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>369</v>
       </c>
@@ -5268,7 +5271,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>801</v>
       </c>
@@ -5276,7 +5279,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>935</v>
       </c>
@@ -5284,7 +5287,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>227</v>
       </c>
@@ -5292,7 +5295,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>845</v>
       </c>
@@ -5300,7 +5303,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>133</v>
       </c>
@@ -5308,7 +5311,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>524</v>
       </c>
@@ -5316,7 +5319,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>865</v>
       </c>
@@ -5324,7 +5327,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>911</v>
       </c>
@@ -5332,7 +5335,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>912</v>
       </c>
@@ -5340,7 +5343,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>346</v>
       </c>
@@ -5348,7 +5351,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>855</v>
       </c>
@@ -5356,7 +5359,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>245</v>
       </c>
@@ -5364,7 +5367,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>466</v>
       </c>
@@ -5372,7 +5375,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>698</v>
       </c>
@@ -5380,7 +5383,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>647</v>
       </c>
@@ -5388,7 +5391,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>694</v>
       </c>
@@ -5396,7 +5399,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>1003</v>
       </c>
@@ -5404,7 +5407,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>79</v>
       </c>
@@ -5412,7 +5415,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>80</v>
       </c>
@@ -5420,7 +5423,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>740</v>
       </c>
@@ -5428,7 +5431,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>788</v>
       </c>
@@ -5436,7 +5439,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>882</v>
       </c>
@@ -5444,7 +5447,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>1022</v>
       </c>
@@ -5452,7 +5455,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>40</v>
       </c>
@@ -5460,7 +5463,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>41</v>
       </c>
@@ -5468,7 +5471,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>173</v>
       </c>
@@ -5476,7 +5479,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>726</v>
       </c>
@@ -5484,7 +5487,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>536</v>
       </c>
@@ -5492,7 +5495,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>812</v>
       </c>
@@ -5500,7 +5503,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>629</v>
       </c>
@@ -5508,7 +5511,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>519</v>
       </c>
@@ -5516,7 +5519,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>93</v>
       </c>
@@ -5524,7 +5527,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>94</v>
       </c>
@@ -5532,7 +5535,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
@@ -5540,7 +5543,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>754</v>
       </c>
@@ -5548,7 +5551,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>82</v>
       </c>
@@ -5556,7 +5559,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>83</v>
       </c>
@@ -5564,7 +5567,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>635</v>
       </c>
@@ -5572,7 +5575,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>875</v>
       </c>
@@ -5580,7 +5583,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>876</v>
       </c>
@@ -5588,7 +5591,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>193</v>
       </c>
@@ -5596,7 +5599,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>639</v>
       </c>
@@ -5604,7 +5607,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>538</v>
       </c>
@@ -5612,7 +5615,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>489</v>
       </c>
@@ -5620,7 +5623,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>347</v>
       </c>
@@ -5628,7 +5631,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>81</v>
       </c>
@@ -5636,7 +5639,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>339</v>
       </c>
@@ -5644,7 +5647,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>149</v>
       </c>
@@ -5652,7 +5655,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>821</v>
       </c>
@@ -5660,7 +5663,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>27</v>
       </c>
@@ -5668,7 +5671,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>177</v>
       </c>
@@ -5676,7 +5679,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>417</v>
       </c>
@@ -5684,7 +5687,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>418</v>
       </c>
@@ -5692,7 +5695,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>32</v>
       </c>
@@ -5700,7 +5703,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>891</v>
       </c>
@@ -5708,7 +5711,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>183</v>
       </c>
@@ -5716,7 +5719,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>791</v>
       </c>
@@ -5724,7 +5727,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>844</v>
       </c>
@@ -5732,7 +5735,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>1014</v>
       </c>
@@ -5740,7 +5743,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>1015</v>
       </c>
@@ -5748,7 +5751,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>34</v>
       </c>
@@ -5756,7 +5759,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>35</v>
       </c>
@@ -5764,7 +5767,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>122</v>
       </c>
@@ -5772,7 +5775,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>686</v>
       </c>
@@ -5780,7 +5783,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>931</v>
       </c>
@@ -5788,7 +5791,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>918</v>
       </c>
@@ -5796,7 +5799,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>653</v>
       </c>
@@ -5804,7 +5807,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>642</v>
       </c>
@@ -5812,7 +5815,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>483</v>
       </c>
@@ -5820,7 +5823,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>828</v>
       </c>
@@ -5828,7 +5831,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>98</v>
       </c>
@@ -5836,7 +5839,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>860</v>
       </c>
@@ -5844,7 +5847,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>861</v>
       </c>
@@ -5852,7 +5855,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>430</v>
       </c>
@@ -5860,7 +5863,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>428</v>
       </c>
@@ -5868,7 +5871,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>1027</v>
       </c>
@@ -5876,7 +5879,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>657</v>
       </c>
@@ -5884,7 +5887,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>722</v>
       </c>
@@ -5892,7 +5895,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>589</v>
       </c>
@@ -5900,7 +5903,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>278</v>
       </c>
@@ -5908,7 +5911,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>814</v>
       </c>
@@ -5916,7 +5919,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>138</v>
       </c>
@@ -5924,7 +5927,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>433</v>
       </c>
@@ -5932,7 +5935,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>163</v>
       </c>
@@ -5940,7 +5943,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>873</v>
       </c>
@@ -5948,7 +5951,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>874</v>
       </c>
@@ -5956,7 +5959,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>450</v>
       </c>
@@ -5964,7 +5967,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>753</v>
       </c>
@@ -5972,7 +5975,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>279</v>
       </c>
@@ -5980,7 +5983,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>33</v>
       </c>
@@ -5988,7 +5991,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>90</v>
       </c>
@@ -5996,7 +5999,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>266</v>
       </c>
@@ -6004,7 +6007,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>574</v>
       </c>
@@ -6012,7 +6015,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>643</v>
       </c>
@@ -6020,7 +6023,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>507</v>
       </c>
@@ -6028,7 +6031,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>110</v>
       </c>
@@ -6036,7 +6039,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>503</v>
       </c>
@@ -6044,7 +6047,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>378</v>
       </c>
@@ -6052,7 +6055,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>522</v>
       </c>
@@ -6060,7 +6063,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>340</v>
       </c>
@@ -6068,7 +6071,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>387</v>
       </c>
@@ -6076,7 +6079,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>834</v>
       </c>
@@ -6084,7 +6087,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>730</v>
       </c>
@@ -6092,7 +6095,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>697</v>
       </c>
@@ -6100,7 +6103,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>171</v>
       </c>
@@ -6108,7 +6111,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>248</v>
       </c>
@@ -6116,7 +6119,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>48</v>
       </c>
@@ -6124,7 +6127,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>514</v>
       </c>
@@ -6132,7 +6135,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>656</v>
       </c>
@@ -6140,7 +6143,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>77</v>
       </c>
@@ -6148,7 +6151,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>78</v>
       </c>
@@ -6156,7 +6159,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>86</v>
       </c>
@@ -6164,7 +6167,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>249</v>
       </c>
@@ -6172,7 +6175,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>246</v>
       </c>
@@ -6180,7 +6183,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>217</v>
       </c>
@@ -6188,7 +6191,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>218</v>
       </c>
@@ -6196,7 +6199,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>687</v>
       </c>
@@ -6204,7 +6207,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>840</v>
       </c>
@@ -6212,7 +6215,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>391</v>
       </c>
@@ -6220,7 +6223,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>495</v>
       </c>
@@ -6228,7 +6231,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>547</v>
       </c>
@@ -6236,7 +6239,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>260</v>
       </c>
@@ -6244,7 +6247,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>724</v>
       </c>
@@ -6252,7 +6255,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>84</v>
       </c>
@@ -6260,7 +6263,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>85</v>
       </c>
@@ -6268,7 +6271,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>129</v>
       </c>
@@ -6276,7 +6279,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>427</v>
       </c>
@@ -6284,7 +6287,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>1017</v>
       </c>
@@ -6292,7 +6295,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>794</v>
       </c>
@@ -6300,7 +6303,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>341</v>
       </c>
@@ -6308,7 +6311,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>342</v>
       </c>
@@ -6316,7 +6319,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>31</v>
       </c>
@@ -6324,7 +6327,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>1016</v>
       </c>
@@ -6332,7 +6335,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>1018</v>
       </c>
@@ -6340,7 +6343,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>336</v>
       </c>
@@ -6348,7 +6351,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>189</v>
       </c>
@@ -6356,7 +6359,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>829</v>
       </c>
@@ -6364,7 +6367,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>392</v>
       </c>
@@ -6372,7 +6375,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>56</v>
       </c>
@@ -6380,7 +6383,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>240</v>
       </c>
@@ -6388,7 +6391,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>167</v>
       </c>
@@ -6396,7 +6399,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>170</v>
       </c>
@@ -6404,7 +6407,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>343</v>
       </c>
@@ -6412,7 +6415,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>943</v>
       </c>
@@ -6420,7 +6423,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>239</v>
       </c>
@@ -6428,7 +6431,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>253</v>
       </c>
@@ -6436,7 +6439,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>335</v>
       </c>
@@ -6444,7 +6447,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>388</v>
       </c>
@@ -6452,7 +6455,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>429</v>
       </c>
@@ -6460,7 +6463,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>241</v>
       </c>
@@ -6468,7 +6471,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>431</v>
       </c>
@@ -6476,7 +6479,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>432</v>
       </c>
@@ -6484,7 +6487,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>792</v>
       </c>
@@ -6492,7 +6495,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>443</v>
       </c>
@@ -6500,7 +6503,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>436</v>
       </c>
@@ -6508,7 +6511,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>161</v>
       </c>
@@ -6516,7 +6519,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>595</v>
       </c>
@@ -6524,7 +6527,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>383</v>
       </c>
@@ -6532,7 +6535,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>384</v>
       </c>
@@ -6540,7 +6543,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>261</v>
       </c>
@@ -6548,7 +6551,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>688</v>
       </c>
@@ -6556,7 +6559,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>517</v>
       </c>
@@ -6564,7 +6567,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>333</v>
       </c>
@@ -6572,7 +6575,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>334</v>
       </c>
@@ -6580,7 +6583,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>929</v>
       </c>
@@ -6588,7 +6591,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>435</v>
       </c>
@@ -6596,7 +6599,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>585</v>
       </c>
@@ -6604,7 +6607,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>527</v>
       </c>
@@ -6612,7 +6615,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>889</v>
       </c>
@@ -6620,7 +6623,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>499</v>
       </c>
@@ -6628,7 +6631,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>332</v>
       </c>
@@ -6636,7 +6639,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>337</v>
       </c>
@@ -6644,7 +6647,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>338</v>
       </c>
@@ -6652,7 +6655,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>380</v>
       </c>
@@ -6660,7 +6663,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>111</v>
       </c>
@@ -6668,7 +6671,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>166</v>
       </c>
@@ -6676,7 +6679,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>76</v>
       </c>
@@ -6684,7 +6687,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>406</v>
       </c>
@@ -6692,7 +6695,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>548</v>
       </c>
@@ -6700,7 +6703,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>523</v>
       </c>
@@ -6708,7 +6711,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>951</v>
       </c>
@@ -6716,7 +6719,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>896</v>
       </c>
@@ -6724,7 +6727,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>276</v>
       </c>
@@ -6732,7 +6735,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>251</v>
       </c>
@@ -6740,7 +6743,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>949</v>
       </c>
@@ -6748,7 +6751,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>464</v>
       </c>
@@ -6756,7 +6759,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>615</v>
       </c>
@@ -6764,7 +6767,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>348</v>
       </c>
@@ -6772,7 +6775,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>930</v>
       </c>
@@ -6780,7 +6783,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>54</v>
       </c>
@@ -6788,7 +6791,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>0</v>
       </c>
@@ -6796,7 +6799,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>393</v>
       </c>
@@ -6804,7 +6807,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>835</v>
       </c>
@@ -6812,7 +6815,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>403</v>
       </c>
@@ -6820,7 +6823,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>402</v>
       </c>
@@ -6828,7 +6831,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>588</v>
       </c>
@@ -6836,7 +6839,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>407</v>
       </c>
@@ -6844,7 +6847,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>226</v>
       </c>
@@ -6852,7 +6855,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>526</v>
       </c>
@@ -6860,7 +6863,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>439</v>
       </c>
@@ -6868,7 +6871,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>482</v>
       </c>
@@ -6876,7 +6879,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>152</v>
       </c>
@@ -6884,7 +6887,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>58</v>
       </c>
@@ -6892,7 +6895,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>19</v>
       </c>
@@ -6900,7 +6903,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>16</v>
       </c>
@@ -6908,7 +6911,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>720</v>
       </c>
@@ -6916,7 +6919,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>136</v>
       </c>
@@ -6924,7 +6927,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>30</v>
       </c>
@@ -6932,7 +6935,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>164</v>
       </c>
@@ -6940,7 +6943,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>576</v>
       </c>
@@ -6948,7 +6951,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>460</v>
       </c>
@@ -6956,7 +6959,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>252</v>
       </c>
@@ -6964,7 +6967,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>390</v>
       </c>
@@ -6972,7 +6975,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>581</v>
       </c>
@@ -6980,7 +6983,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>898</v>
       </c>
@@ -6988,7 +6991,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>836</v>
       </c>
@@ -6996,7 +6999,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>806</v>
       </c>
@@ -7004,7 +7007,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>658</v>
       </c>
@@ -7012,7 +7015,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>659</v>
       </c>
@@ -7020,7 +7023,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>701</v>
       </c>
@@ -7028,7 +7031,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>731</v>
       </c>
@@ -7036,7 +7039,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>557</v>
       </c>
@@ -7044,7 +7047,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>906</v>
       </c>
@@ -7052,7 +7055,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>616</v>
       </c>
@@ -7060,7 +7063,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>970</v>
       </c>
@@ -7068,7 +7071,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>926</v>
       </c>
@@ -7076,7 +7079,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>927</v>
       </c>
@@ -7084,7 +7087,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>42</v>
       </c>
@@ -7092,7 +7095,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>816</v>
       </c>
@@ -7100,7 +7103,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>787</v>
       </c>
@@ -7108,7 +7111,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>434</v>
       </c>
@@ -7116,7 +7119,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>767</v>
       </c>
@@ -7124,7 +7127,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>700</v>
       </c>
@@ -7132,7 +7135,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>715</v>
       </c>
@@ -7140,7 +7143,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>539</v>
       </c>
@@ -7148,7 +7151,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>558</v>
       </c>
@@ -7156,7 +7159,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>766</v>
       </c>
@@ -7164,7 +7167,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>614</v>
       </c>
@@ -7172,7 +7175,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>468</v>
       </c>
@@ -7180,7 +7183,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>353</v>
       </c>
@@ -7188,7 +7191,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>679</v>
       </c>
@@ -7196,7 +7199,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>476</v>
       </c>
@@ -7204,7 +7207,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>841</v>
       </c>
@@ -7212,7 +7215,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>815</v>
       </c>
@@ -7220,7 +7223,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>843</v>
       </c>
@@ -7228,7 +7231,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>1013</v>
       </c>
@@ -7236,7 +7239,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>685</v>
       </c>
@@ -7244,7 +7247,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>838</v>
       </c>
@@ -7252,7 +7255,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>684</v>
       </c>
@@ -7260,7 +7263,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>681</v>
       </c>
@@ -7268,7 +7271,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>459</v>
       </c>
@@ -7276,7 +7279,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>968</v>
       </c>
@@ -7284,7 +7287,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>321</v>
       </c>
@@ -7292,7 +7295,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>783</v>
       </c>
@@ -7300,7 +7303,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>723</v>
       </c>
@@ -7308,7 +7311,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>964</v>
       </c>
@@ -7316,7 +7319,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>672</v>
       </c>
@@ -7324,7 +7327,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>567</v>
       </c>
@@ -7332,7 +7335,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>568</v>
       </c>
@@ -7340,7 +7343,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>570</v>
       </c>
@@ -7348,7 +7351,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>571</v>
       </c>
@@ -7356,7 +7359,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>550</v>
       </c>
@@ -7364,7 +7367,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>877</v>
       </c>
@@ -7372,7 +7375,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>285</v>
       </c>
@@ -7380,7 +7383,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>375</v>
       </c>
@@ -7388,7 +7391,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>396</v>
       </c>
@@ -7396,7 +7399,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>985</v>
       </c>
@@ -7404,7 +7407,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>983</v>
       </c>
@@ -7412,7 +7415,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>984</v>
       </c>
@@ -7420,7 +7423,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>350</v>
       </c>
@@ -7428,7 +7431,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>981</v>
       </c>
@@ -7436,7 +7439,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>982</v>
       </c>
@@ -7444,7 +7447,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>999</v>
       </c>
@@ -7452,7 +7455,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>26</v>
       </c>
@@ -7460,7 +7463,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>789</v>
       </c>
@@ -7468,7 +7471,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>782</v>
       </c>
@@ -7476,7 +7479,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>395</v>
       </c>
@@ -7484,7 +7487,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>902</v>
       </c>
@@ -7492,7 +7495,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>763</v>
       </c>
@@ -7500,7 +7503,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>986</v>
       </c>
@@ -7508,7 +7511,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>640</v>
       </c>
@@ -7516,7 +7519,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>987</v>
       </c>
@@ -7524,7 +7527,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>284</v>
       </c>
@@ -7532,7 +7535,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>977</v>
       </c>
@@ -7540,7 +7543,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>370</v>
       </c>
@@ -7548,7 +7551,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>463</v>
       </c>
@@ -7556,7 +7559,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>566</v>
       </c>
@@ -7564,7 +7567,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>712</v>
       </c>
@@ -7572,7 +7575,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>989</v>
       </c>
@@ -7580,7 +7583,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>739</v>
       </c>
@@ -7588,7 +7591,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>969</v>
       </c>
@@ -7596,7 +7599,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>425</v>
       </c>
@@ -7604,7 +7607,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>318</v>
       </c>
@@ -7612,7 +7615,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>998</v>
       </c>
@@ -7620,7 +7623,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>649</v>
       </c>
@@ -7628,7 +7631,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>44</v>
       </c>
@@ -7636,7 +7639,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>784</v>
       </c>
@@ -7644,7 +7647,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>306</v>
       </c>
@@ -7652,7 +7655,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>564</v>
       </c>
@@ -7660,7 +7663,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>890</v>
       </c>
@@ -7668,7 +7671,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>1020</v>
       </c>
@@ -7676,7 +7679,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>579</v>
       </c>
@@ -7684,7 +7687,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>462</v>
       </c>
@@ -7692,7 +7695,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>707</v>
       </c>
@@ -7700,7 +7703,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>674</v>
       </c>
@@ -7708,7 +7711,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>456</v>
       </c>
@@ -7716,7 +7719,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>796</v>
       </c>
@@ -7724,7 +7727,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>717</v>
       </c>
@@ -7732,7 +7735,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>211</v>
       </c>
@@ -7740,7 +7743,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>214</v>
       </c>
@@ -7748,7 +7751,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>206</v>
       </c>
@@ -7756,7 +7759,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>269</v>
       </c>
@@ -7764,7 +7767,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>208</v>
       </c>
@@ -7772,7 +7775,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>220</v>
       </c>
@@ -7780,7 +7783,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>501</v>
       </c>
@@ -7788,7 +7791,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>976</v>
       </c>
@@ -7796,7 +7799,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>761</v>
       </c>
@@ -7804,7 +7807,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>312</v>
       </c>
@@ -7812,7 +7815,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>118</v>
       </c>
@@ -7820,7 +7823,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>850</v>
       </c>
@@ -7828,7 +7831,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>472</v>
       </c>
@@ -7836,7 +7839,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
         <v>28</v>
       </c>
@@ -7844,7 +7847,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>936</v>
       </c>
@@ -7852,7 +7855,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>551</v>
       </c>
@@ -7860,7 +7863,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>900</v>
       </c>
@@ -7868,7 +7871,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>320</v>
       </c>
@@ -7876,7 +7879,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>810</v>
       </c>
@@ -7884,7 +7887,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>626</v>
       </c>
@@ -7892,7 +7895,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>804</v>
       </c>
@@ -7900,7 +7903,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>473</v>
       </c>
@@ -7908,7 +7911,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>283</v>
       </c>
@@ -7916,7 +7919,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>704</v>
       </c>
@@ -7924,7 +7927,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>759</v>
       </c>
@@ -7932,7 +7935,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>650</v>
       </c>
@@ -7940,7 +7943,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>771</v>
       </c>
@@ -7948,7 +7951,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>467</v>
       </c>
@@ -7956,7 +7959,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>438</v>
       </c>
@@ -7964,7 +7967,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
         <v>479</v>
       </c>
@@ -7972,7 +7975,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
         <v>899</v>
       </c>
@@ -7980,7 +7983,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
         <v>559</v>
       </c>
@@ -7988,7 +7991,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>293</v>
       </c>
@@ -7996,7 +7999,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
         <v>779</v>
       </c>
@@ -8004,7 +8007,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>654</v>
       </c>
@@ -8012,7 +8015,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>993</v>
       </c>
@@ -8020,7 +8023,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>742</v>
       </c>
@@ -8028,7 +8031,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>12</v>
       </c>
@@ -8036,7 +8039,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>549</v>
       </c>
@@ -8044,7 +8047,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
         <v>819</v>
       </c>
@@ -8052,7 +8055,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
         <v>374</v>
       </c>
@@ -8060,7 +8063,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
         <v>719</v>
       </c>
@@ -8068,7 +8071,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>669</v>
       </c>
@@ -8076,7 +8079,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
         <v>1002</v>
       </c>
@@ -8084,7 +8087,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>511</v>
       </c>
@@ -8092,7 +8095,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>710</v>
       </c>
@@ -8100,7 +8103,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>457</v>
       </c>
@@ -8108,7 +8111,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>455</v>
       </c>
@@ -8116,7 +8119,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>561</v>
       </c>
@@ -8124,7 +8127,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>562</v>
       </c>
@@ -8132,7 +8135,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>207</v>
       </c>
@@ -8140,7 +8143,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>478</v>
       </c>
@@ -8148,7 +8151,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>63</v>
       </c>
@@ -8156,7 +8159,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>61</v>
       </c>
@@ -8164,7 +8167,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>743</v>
       </c>
@@ -8172,7 +8175,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>725</v>
       </c>
@@ -8180,7 +8183,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>980</v>
       </c>
@@ -8188,7 +8191,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
         <v>826</v>
       </c>
@@ -8196,7 +8199,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>201</v>
       </c>
@@ -8204,7 +8207,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>919</v>
       </c>
@@ -8212,7 +8215,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>920</v>
       </c>
@@ -8220,7 +8223,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
         <v>921</v>
       </c>
@@ -8228,7 +8231,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>750</v>
       </c>
@@ -8236,7 +8239,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
         <v>777</v>
       </c>
@@ -8244,7 +8247,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>474</v>
       </c>
@@ -8252,7 +8255,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
         <v>143</v>
       </c>
@@ -8260,7 +8263,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>972</v>
       </c>
@@ -8268,7 +8271,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>833</v>
       </c>
@@ -8276,7 +8279,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>310</v>
       </c>
@@ -8284,7 +8287,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
         <v>781</v>
       </c>
@@ -8292,7 +8295,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>313</v>
       </c>
@@ -8300,7 +8303,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
         <v>563</v>
       </c>
@@ -8308,7 +8311,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>832</v>
       </c>
@@ -8316,7 +8319,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>115</v>
       </c>
@@ -8324,7 +8327,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>461</v>
       </c>
@@ -8332,7 +8335,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>545</v>
       </c>
@@ -8340,7 +8343,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
         <v>706</v>
       </c>
@@ -8348,7 +8351,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
         <v>102</v>
       </c>
@@ -8356,7 +8359,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>839</v>
       </c>
@@ -8364,7 +8367,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>560</v>
       </c>
@@ -8372,7 +8375,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>666</v>
       </c>
@@ -8380,7 +8383,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>955</v>
       </c>
@@ -8388,7 +8391,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>289</v>
       </c>
@@ -8396,7 +8399,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>618</v>
       </c>
@@ -8404,7 +8407,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>879</v>
       </c>
@@ -8412,7 +8415,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
         <v>502</v>
       </c>
@@ -8420,7 +8423,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
         <v>641</v>
       </c>
@@ -8428,7 +8431,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>1007</v>
       </c>
@@ -8436,7 +8439,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>1006</v>
       </c>
@@ -8444,7 +8447,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>966</v>
       </c>
@@ -8452,7 +8455,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>805</v>
       </c>
@@ -8460,7 +8463,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
         <v>809</v>
       </c>
@@ -8468,7 +8471,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
         <v>923</v>
       </c>
@@ -8476,7 +8479,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
         <v>493</v>
       </c>
@@ -8484,7 +8487,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
         <v>944</v>
       </c>
@@ -8492,7 +8495,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
         <v>184</v>
       </c>
@@ -8500,7 +8503,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>361</v>
       </c>
@@ -8508,7 +8511,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>368</v>
       </c>
@@ -8516,7 +8519,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>355</v>
       </c>
@@ -8524,7 +8527,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
         <v>979</v>
       </c>
@@ -8532,7 +8535,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
         <v>800</v>
       </c>
@@ -8540,7 +8543,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
         <v>803</v>
       </c>
@@ -8548,7 +8551,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>413</v>
       </c>
@@ -8556,7 +8559,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
         <v>748</v>
       </c>
@@ -8564,7 +8567,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
         <v>290</v>
       </c>
@@ -8572,7 +8575,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
         <v>760</v>
       </c>
@@ -8580,7 +8583,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
         <v>486</v>
       </c>
@@ -8588,7 +8591,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
         <v>362</v>
       </c>
@@ -8596,7 +8599,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>910</v>
       </c>
@@ -8604,7 +8607,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
         <v>60</v>
       </c>
@@ -8612,7 +8615,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
         <v>377</v>
       </c>
@@ -8620,7 +8623,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
         <v>316</v>
       </c>
@@ -8628,7 +8631,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
         <v>824</v>
       </c>
@@ -8636,7 +8639,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
         <v>630</v>
       </c>
@@ -8644,7 +8647,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
         <v>153</v>
       </c>
@@ -8652,7 +8655,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
         <v>132</v>
       </c>
@@ -8660,7 +8663,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>188</v>
       </c>
@@ -8668,7 +8671,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
         <v>995</v>
       </c>
@@ -8676,7 +8679,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
         <v>1008</v>
       </c>
@@ -8684,7 +8687,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
         <v>973</v>
       </c>
@@ -8692,7 +8695,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
         <v>878</v>
       </c>
@@ -8700,7 +8703,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
         <v>11</v>
       </c>
@@ -8708,7 +8711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
         <v>762</v>
       </c>
@@ -8716,7 +8719,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
         <v>542</v>
       </c>
@@ -8724,7 +8727,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
         <v>975</v>
       </c>
@@ -8732,7 +8735,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
         <v>487</v>
       </c>
@@ -8740,7 +8743,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>769</v>
       </c>
@@ -8748,7 +8751,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
         <v>808</v>
       </c>
@@ -8756,7 +8759,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
         <v>288</v>
       </c>
@@ -8764,7 +8767,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
         <v>295</v>
       </c>
@@ -8772,7 +8775,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
         <v>513</v>
       </c>
@@ -8780,7 +8783,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
         <v>510</v>
       </c>
@@ -8788,7 +8791,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
         <v>442</v>
       </c>
@@ -8796,7 +8799,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
         <v>544</v>
       </c>
@@ -8804,7 +8807,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
         <v>140</v>
       </c>
@@ -8812,7 +8815,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
         <v>142</v>
       </c>
@@ -8820,7 +8823,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
         <v>908</v>
       </c>
@@ -8828,7 +8831,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
         <v>709</v>
       </c>
@@ -8836,7 +8839,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
         <v>190</v>
       </c>
@@ -8844,7 +8847,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
         <v>191</v>
       </c>
@@ -8852,7 +8855,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
         <v>123</v>
       </c>
@@ -8860,7 +8863,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
         <v>317</v>
       </c>
@@ -8868,7 +8871,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
         <v>286</v>
       </c>
@@ -8876,7 +8879,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
         <v>541</v>
       </c>
@@ -8884,7 +8887,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
         <v>454</v>
       </c>
@@ -8892,7 +8895,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
         <v>727</v>
       </c>
@@ -8900,7 +8903,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
         <v>135</v>
       </c>
@@ -8908,7 +8911,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
         <v>764</v>
       </c>
@@ -8916,7 +8919,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
         <v>660</v>
       </c>
@@ -8924,7 +8927,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
         <v>971</v>
       </c>
@@ -8932,7 +8935,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
         <v>617</v>
       </c>
@@ -8940,7 +8943,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
         <v>627</v>
       </c>
@@ -8948,7 +8951,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
         <v>485</v>
       </c>
@@ -8956,7 +8959,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
         <v>215</v>
       </c>
@@ -8964,7 +8967,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
         <v>738</v>
       </c>
@@ -8972,7 +8975,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
         <v>904</v>
       </c>
@@ -8980,7 +8983,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
         <v>398</v>
       </c>
@@ -8988,7 +8991,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
         <v>667</v>
       </c>
@@ -8996,7 +8999,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>500</v>
       </c>
@@ -9004,7 +9007,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
         <v>631</v>
       </c>
@@ -9012,7 +9015,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
         <v>264</v>
       </c>
@@ -9020,7 +9023,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
         <v>947</v>
       </c>
@@ -9028,7 +9031,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
         <v>178</v>
       </c>
@@ -9036,7 +9039,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
         <v>807</v>
       </c>
@@ -9044,7 +9047,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
         <v>714</v>
       </c>
@@ -9052,7 +9055,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
         <v>578</v>
       </c>
@@ -9060,7 +9063,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
         <v>644</v>
       </c>
@@ -9068,7 +9071,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
         <v>458</v>
       </c>
@@ -9076,7 +9079,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
         <v>633</v>
       </c>
@@ -9084,7 +9087,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
         <v>291</v>
       </c>
@@ -9092,7 +9095,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
         <v>713</v>
       </c>
@@ -9100,7 +9103,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
         <v>351</v>
       </c>
@@ -9108,7 +9111,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>287</v>
       </c>
@@ -9116,7 +9119,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
         <v>405</v>
       </c>
@@ -9124,7 +9127,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
         <v>994</v>
       </c>
@@ -9132,7 +9135,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
         <v>752</v>
       </c>
@@ -9140,7 +9143,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
         <v>451</v>
       </c>
@@ -9148,7 +9151,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
         <v>988</v>
       </c>
@@ -9156,7 +9159,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
         <v>888</v>
       </c>
@@ -9164,7 +9167,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
         <v>444</v>
       </c>
@@ -9172,7 +9175,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
         <v>997</v>
       </c>
@@ -9180,7 +9183,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
         <v>922</v>
       </c>
@@ -9188,7 +9191,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
         <v>768</v>
       </c>
@@ -9196,7 +9199,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
         <v>937</v>
       </c>
@@ -9204,7 +9207,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
         <v>825</v>
       </c>
@@ -9212,7 +9215,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
         <v>692</v>
       </c>
@@ -9220,7 +9223,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
         <v>274</v>
       </c>
@@ -9228,7 +9231,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
         <v>399</v>
       </c>
@@ -9236,7 +9239,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
         <v>154</v>
       </c>
@@ -9244,7 +9247,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
         <v>996</v>
       </c>
@@ -9252,7 +9255,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
         <v>376</v>
       </c>
@@ -9260,7 +9263,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
         <v>992</v>
       </c>
@@ -9268,7 +9271,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
         <v>329</v>
       </c>
@@ -9276,7 +9279,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
         <v>765</v>
       </c>
@@ -9284,7 +9287,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
         <v>1005</v>
       </c>
@@ -9292,7 +9295,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
         <v>302</v>
       </c>
@@ -9300,7 +9303,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
         <v>21</v>
       </c>
@@ -9308,7 +9311,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
         <v>569</v>
       </c>
@@ -9316,7 +9319,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
         <v>124</v>
       </c>
@@ -9324,7 +9327,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
         <v>811</v>
       </c>
@@ -9332,7 +9335,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
         <v>962</v>
       </c>
@@ -9340,7 +9343,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
         <v>954</v>
       </c>
@@ -9348,7 +9351,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
         <v>958</v>
       </c>
@@ -9356,7 +9359,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
         <v>957</v>
       </c>
@@ -9364,7 +9367,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>29</v>
       </c>
@@ -9372,7 +9375,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
         <v>373</v>
       </c>
@@ -9380,7 +9383,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
         <v>917</v>
       </c>
@@ -9388,7 +9391,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
         <v>282</v>
       </c>
@@ -9396,7 +9399,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
         <v>894</v>
       </c>
@@ -9404,7 +9407,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
         <v>780</v>
       </c>
@@ -9412,7 +9415,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>745</v>
       </c>
@@ -9420,7 +9423,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
         <v>277</v>
       </c>
@@ -9428,7 +9431,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
         <v>540</v>
       </c>
@@ -9436,7 +9439,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
         <v>1009</v>
       </c>
@@ -9444,7 +9447,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
         <v>192</v>
       </c>
@@ -9452,7 +9455,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
         <v>224</v>
       </c>
@@ -9460,7 +9463,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
         <v>901</v>
       </c>
@@ -9468,7 +9471,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
         <v>734</v>
       </c>
@@ -9476,7 +9479,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
         <v>817</v>
       </c>
@@ -9484,7 +9487,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
         <v>673</v>
       </c>
@@ -9492,7 +9495,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
         <v>303</v>
       </c>
@@ -9500,7 +9503,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
         <v>470</v>
       </c>
@@ -9508,7 +9511,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
         <v>741</v>
       </c>
@@ -9516,7 +9519,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
         <v>623</v>
       </c>
@@ -9524,7 +9527,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
         <v>928</v>
       </c>
@@ -9532,7 +9535,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
         <v>728</v>
       </c>
@@ -9540,7 +9543,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
         <v>465</v>
       </c>
@@ -9548,7 +9551,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
         <v>822</v>
       </c>
@@ -9556,7 +9559,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
         <v>668</v>
       </c>
@@ -9564,7 +9567,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
         <v>22</v>
       </c>
@@ -9572,7 +9575,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
         <v>932</v>
       </c>
@@ -9580,7 +9583,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
         <v>360</v>
       </c>
@@ -9588,7 +9591,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
         <v>664</v>
       </c>
@@ -9596,7 +9599,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
         <v>652</v>
       </c>
@@ -9604,7 +9607,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
         <v>813</v>
       </c>
@@ -9612,7 +9615,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
         <v>830</v>
       </c>
@@ -9620,7 +9623,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
         <v>401</v>
       </c>
@@ -9628,7 +9631,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
         <v>1012</v>
       </c>
@@ -9636,7 +9639,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
         <v>646</v>
       </c>
@@ -9644,7 +9647,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
         <v>820</v>
       </c>
@@ -9652,7 +9655,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" s="1" t="s">
         <v>59</v>
       </c>
@@ -9660,7 +9663,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="s">
         <v>1010</v>
       </c>
@@ -9668,7 +9671,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
         <v>349</v>
       </c>
@@ -9676,7 +9679,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" s="1" t="s">
         <v>446</v>
       </c>
@@ -9684,7 +9687,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" s="1" t="s">
         <v>636</v>
       </c>
@@ -9692,7 +9695,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" s="1" t="s">
         <v>842</v>
       </c>
@@ -9700,7 +9703,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" s="1" t="s">
         <v>1001</v>
       </c>
@@ -9708,7 +9711,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" s="1" t="s">
         <v>744</v>
       </c>
@@ -9716,7 +9719,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" s="1" t="s">
         <v>258</v>
       </c>
@@ -9724,7 +9727,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" s="1" t="s">
         <v>475</v>
       </c>
@@ -9732,7 +9735,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" s="1" t="s">
         <v>426</v>
       </c>
@@ -9740,7 +9743,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" s="1" t="s">
         <v>963</v>
       </c>
@@ -9748,7 +9751,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" s="1" t="s">
         <v>946</v>
       </c>
@@ -9756,7 +9759,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" s="1" t="s">
         <v>961</v>
       </c>
@@ -9764,7 +9767,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" s="1" t="s">
         <v>314</v>
       </c>
@@ -9772,7 +9775,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" s="1" t="s">
         <v>991</v>
       </c>
@@ -9780,7 +9783,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" s="1" t="s">
         <v>198</v>
       </c>
@@ -9788,7 +9791,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" s="1" t="s">
         <v>480</v>
       </c>
@@ -9796,7 +9799,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" s="1" t="s">
         <v>196</v>
       </c>
@@ -9804,7 +9807,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" s="1" t="s">
         <v>62</v>
       </c>
@@ -9812,7 +9815,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" s="1" t="s">
         <v>46</v>
       </c>
@@ -9820,7 +9823,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" s="1" t="s">
         <v>799</v>
       </c>
@@ -9828,7 +9831,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" s="1" t="s">
         <v>818</v>
       </c>
@@ -9836,7 +9839,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" s="1" t="s">
         <v>105</v>
       </c>
@@ -9844,7 +9847,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" s="1" t="s">
         <v>909</v>
       </c>
@@ -9852,7 +9855,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" s="1" t="s">
         <v>87</v>
       </c>
@@ -9860,7 +9863,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" s="1" t="s">
         <v>823</v>
       </c>
@@ -9868,7 +9871,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" s="1" t="s">
         <v>101</v>
       </c>
@@ -9876,7 +9879,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" s="1" t="s">
         <v>956</v>
       </c>
@@ -9884,7 +9887,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" s="1" t="s">
         <v>448</v>
       </c>
@@ -9892,7 +9895,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" s="1" t="s">
         <v>925</v>
       </c>
@@ -9900,7 +9903,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" s="1" t="s">
         <v>262</v>
       </c>
@@ -9908,7 +9911,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" s="1" t="s">
         <v>718</v>
       </c>
@@ -9916,7 +9919,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" s="1" t="s">
         <v>106</v>
       </c>
@@ -9924,7 +9927,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" s="1" t="s">
         <v>953</v>
       </c>
@@ -9932,7 +9935,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" s="1" t="s">
         <v>359</v>
       </c>
@@ -9940,7 +9943,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" s="1" t="s">
         <v>437</v>
       </c>
@@ -9948,7 +9951,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" s="1" t="s">
         <v>6</v>
       </c>
@@ -9956,7 +9959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" s="1" t="s">
         <v>945</v>
       </c>
@@ -9964,7 +9967,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" s="1" t="s">
         <v>965</v>
       </c>
@@ -9972,7 +9975,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" s="1" t="s">
         <v>960</v>
       </c>
@@ -9980,7 +9983,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" s="1" t="s">
         <v>492</v>
       </c>
@@ -9988,7 +9991,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" s="1" t="s">
         <v>449</v>
       </c>
@@ -9996,7 +9999,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" s="1" t="s">
         <v>24</v>
       </c>
@@ -10004,7 +10007,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" s="1" t="s">
         <v>1021</v>
       </c>
@@ -10012,7 +10015,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" s="1" t="s">
         <v>632</v>
       </c>
@@ -10020,7 +10023,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" s="1" t="s">
         <v>228</v>
       </c>
@@ -10028,7 +10031,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" s="1" t="s">
         <v>296</v>
       </c>
@@ -10036,7 +10039,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" s="1" t="s">
         <v>43</v>
       </c>
@@ -10044,7 +10047,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" s="1" t="s">
         <v>948</v>
       </c>
@@ -10052,7 +10055,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" s="1" t="s">
         <v>665</v>
       </c>
@@ -10060,7 +10063,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" s="1" t="s">
         <v>676</v>
       </c>
@@ -10068,7 +10071,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" s="1" t="s">
         <v>263</v>
       </c>
@@ -10076,7 +10079,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" s="1" t="s">
         <v>4</v>
       </c>
@@ -10084,7 +10087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" s="1" t="s">
         <v>422</v>
       </c>
@@ -10092,7 +10095,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" s="1" t="s">
         <v>357</v>
       </c>
@@ -10100,7 +10103,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" s="1" t="s">
         <v>197</v>
       </c>
@@ -10108,7 +10111,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" s="1" t="s">
         <v>895</v>
       </c>
@@ -10116,7 +10119,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" s="1" t="s">
         <v>64</v>
       </c>
@@ -10124,7 +10127,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" s="1" t="s">
         <v>447</v>
       </c>
@@ -10132,7 +10135,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" s="1" t="s">
         <v>356</v>
       </c>
@@ -10140,7 +10143,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" s="1" t="s">
         <v>8</v>
       </c>
@@ -10148,7 +10151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" s="1" t="s">
         <v>213</v>
       </c>
@@ -10156,7 +10159,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" s="1" t="s">
         <v>924</v>
       </c>
@@ -10164,7 +10167,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" s="1" t="s">
         <v>708</v>
       </c>
@@ -10172,7 +10175,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" s="1" t="s">
         <v>55</v>
       </c>
@@ -10180,7 +10183,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" s="1" t="s">
         <v>952</v>
       </c>
@@ -10188,7 +10191,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" s="1" t="s">
         <v>729</v>
       </c>
@@ -10196,7 +10199,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" s="1" t="s">
         <v>315</v>
       </c>
@@ -10204,7 +10207,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" s="1" t="s">
         <v>678</v>
       </c>
@@ -10212,7 +10215,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" s="1" t="s">
         <v>169</v>
       </c>
@@ -10220,7 +10223,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" s="1" t="s">
         <v>160</v>
       </c>
@@ -10228,7 +10231,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" s="1" t="s">
         <v>372</v>
       </c>
@@ -10236,7 +10239,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" s="1" t="s">
         <v>497</v>
       </c>
@@ -10244,7 +10247,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" s="1" t="s">
         <v>265</v>
       </c>
@@ -10252,7 +10255,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" s="1" t="s">
         <v>275</v>
       </c>
@@ -10260,7 +10263,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" s="1" t="s">
         <v>268</v>
       </c>
@@ -10268,7 +10271,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" s="1" t="s">
         <v>97</v>
       </c>
@@ -10276,7 +10279,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" s="1" t="s">
         <v>671</v>
       </c>
@@ -10284,7 +10287,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" s="1" t="s">
         <v>786</v>
       </c>
@@ -10292,7 +10295,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" s="1" t="s">
         <v>352</v>
       </c>
@@ -10300,7 +10303,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" s="1" t="s">
         <v>702</v>
       </c>
@@ -10308,7 +10311,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" s="1" t="s">
         <v>272</v>
       </c>
@@ -10316,7 +10319,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" s="1" t="s">
         <v>358</v>
       </c>
@@ -10324,7 +10327,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" s="1" t="s">
         <v>151</v>
       </c>
@@ -10332,7 +10335,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" s="1" t="s">
         <v>5</v>
       </c>
@@ -10340,7 +10343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" s="1" t="s">
         <v>940</v>
       </c>
@@ -10348,7 +10351,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" s="1" t="s">
         <v>941</v>
       </c>
@@ -10356,7 +10359,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" s="1" t="s">
         <v>703</v>
       </c>
@@ -10364,7 +10367,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" s="1" t="s">
         <v>903</v>
       </c>
@@ -10372,7 +10375,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" s="1" t="s">
         <v>942</v>
       </c>
@@ -10380,7 +10383,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" s="1" t="s">
         <v>270</v>
       </c>
@@ -10388,7 +10391,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" s="1" t="s">
         <v>267</v>
       </c>
@@ -10396,7 +10399,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" s="1" t="s">
         <v>242</v>
       </c>
@@ -10404,7 +10407,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" s="1" t="s">
         <v>319</v>
       </c>
@@ -10412,7 +10415,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" s="1" t="s">
         <v>675</v>
       </c>
@@ -10420,7 +10423,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" s="1" t="s">
         <v>905</v>
       </c>
@@ -10428,7 +10431,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" s="1" t="s">
         <v>182</v>
       </c>
@@ -10436,7 +10439,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" s="1" t="s">
         <v>415</v>
       </c>
@@ -10444,7 +10447,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" s="1" t="s">
         <v>292</v>
       </c>
@@ -10452,7 +10455,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" s="1" t="s">
         <v>381</v>
       </c>
@@ -10460,7 +10463,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" s="1" t="s">
         <v>256</v>
       </c>
@@ -10468,7 +10471,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" s="1" t="s">
         <v>572</v>
       </c>
@@ -10476,7 +10479,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" s="1" t="s">
         <v>445</v>
       </c>
@@ -10484,7 +10487,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" s="1" t="s">
         <v>92</v>
       </c>
@@ -10492,7 +10495,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" s="1" t="s">
         <v>837</v>
       </c>
@@ -10500,7 +10503,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" s="1" t="s">
         <v>580</v>
       </c>
@@ -10508,7 +10511,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" s="1" t="s">
         <v>893</v>
       </c>
@@ -10516,7 +10519,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" s="1" t="s">
         <v>273</v>
       </c>
@@ -10524,7 +10527,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" s="1" t="s">
         <v>1011</v>
       </c>
@@ -10532,7 +10535,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" s="1" t="s">
         <v>257</v>
       </c>
@@ -10540,7 +10543,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" s="1" t="s">
         <v>209</v>
       </c>
@@ -10548,7 +10551,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" s="1" t="s">
         <v>651</v>
       </c>
@@ -10556,7 +10559,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" s="1" t="s">
         <v>498</v>
       </c>
@@ -10564,7 +10567,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" s="1" t="s">
         <v>65</v>
       </c>
@@ -10572,7 +10575,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" s="1" t="s">
         <v>147</v>
       </c>
@@ -10580,7 +10583,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" s="1" t="s">
         <v>680</v>
       </c>
@@ -10588,7 +10591,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" s="1" t="s">
         <v>950</v>
       </c>
@@ -10596,7 +10599,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" s="1" t="s">
         <v>223</v>
       </c>
@@ -10604,7 +10607,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" s="1" t="s">
         <v>404</v>
       </c>
@@ -10612,7 +10615,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752" s="1" t="s">
         <v>409</v>
       </c>
@@ -10620,7 +10623,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" s="1" t="s">
         <v>732</v>
       </c>
@@ -10628,7 +10631,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754" s="1" t="s">
         <v>331</v>
       </c>
@@ -10636,7 +10639,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755" s="1" t="s">
         <v>424</v>
       </c>
@@ -10644,7 +10647,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756" s="1" t="s">
         <v>469</v>
       </c>
@@ -10652,7 +10655,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757" s="1" t="s">
         <v>411</v>
       </c>
@@ -10660,7 +10663,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758" s="1" t="s">
         <v>308</v>
       </c>
@@ -10668,7 +10671,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759" s="1" t="s">
         <v>366</v>
       </c>
@@ -10676,7 +10679,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760" s="1" t="s">
         <v>367</v>
       </c>
@@ -10684,7 +10687,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A761" s="1" t="s">
         <v>172</v>
       </c>
@@ -10692,7 +10695,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A762" s="1" t="s">
         <v>1004</v>
       </c>
@@ -10700,7 +10703,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A763" s="1" t="s">
         <v>221</v>
       </c>
@@ -10708,7 +10711,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A764" s="1" t="s">
         <v>552</v>
       </c>
@@ -10716,7 +10719,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A765" s="1" t="s">
         <v>219</v>
       </c>
@@ -10724,7 +10727,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A766" s="1" t="s">
         <v>212</v>
       </c>
@@ -10732,7 +10735,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A767" s="1" t="s">
         <v>202</v>
       </c>
@@ -10740,7 +10743,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A768" s="1" t="s">
         <v>204</v>
       </c>
@@ -10748,7 +10751,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A769" s="1" t="s">
         <v>104</v>
       </c>
@@ -10756,7 +10759,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A770" s="1" t="s">
         <v>281</v>
       </c>
@@ -10764,7 +10767,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A771" s="1" t="s">
         <v>735</v>
       </c>
@@ -10772,7 +10775,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A772" s="1" t="s">
         <v>225</v>
       </c>
@@ -10780,7 +10783,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A773" s="1" t="s">
         <v>797</v>
       </c>
@@ -10788,7 +10791,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A774" s="1" t="s">
         <v>798</v>
       </c>
@@ -10796,7 +10799,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A775" s="1" t="s">
         <v>453</v>
       </c>
@@ -10804,7 +10807,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A776" s="1" t="s">
         <v>130</v>
       </c>
@@ -10812,7 +10815,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A777" s="1" t="s">
         <v>117</v>
       </c>
@@ -10820,7 +10823,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A778" s="1" t="s">
         <v>508</v>
       </c>
@@ -10828,7 +10831,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A779" s="1" t="s">
         <v>471</v>
       </c>
@@ -10836,7 +10839,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A780" s="1" t="s">
         <v>452</v>
       </c>
@@ -10844,7 +10847,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A781" s="1" t="s">
         <v>231</v>
       </c>
@@ -10852,7 +10855,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A782" s="1" t="s">
         <v>868</v>
       </c>
@@ -10860,7 +10863,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A783" s="1" t="s">
         <v>236</v>
       </c>
@@ -10868,7 +10871,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A784" s="1" t="s">
         <v>978</v>
       </c>
@@ -10876,7 +10879,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A785" s="1" t="s">
         <v>423</v>
       </c>
@@ -10884,7 +10887,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A786" s="1" t="s">
         <v>512</v>
       </c>
@@ -10892,7 +10895,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A787" s="1" t="s">
         <v>127</v>
       </c>
@@ -10900,7 +10903,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A788" s="1" t="s">
         <v>232</v>
       </c>
@@ -10908,7 +10911,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A789" s="1" t="s">
         <v>233</v>
       </c>
@@ -10916,7 +10919,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A790" s="1" t="s">
         <v>553</v>
       </c>
@@ -10924,7 +10927,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A791" s="1" t="s">
         <v>772</v>
       </c>
@@ -10932,7 +10935,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A792" s="1" t="s">
         <v>749</v>
       </c>
@@ -10940,7 +10943,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A793" s="1" t="s">
         <v>363</v>
       </c>
@@ -10948,7 +10951,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A794" s="1" t="s">
         <v>323</v>
       </c>
@@ -10956,7 +10959,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A795" s="1" t="s">
         <v>324</v>
       </c>
@@ -10964,7 +10967,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A796" s="1" t="s">
         <v>200</v>
       </c>
@@ -10972,7 +10975,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A797" s="1" t="s">
         <v>577</v>
       </c>
@@ -10980,7 +10983,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A798" s="1" t="s">
         <v>125</v>
       </c>
@@ -10988,7 +10991,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A799" s="1" t="s">
         <v>131</v>
       </c>
@@ -10996,7 +10999,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A800" s="1" t="s">
         <v>330</v>
       </c>
@@ -11004,7 +11007,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A801" s="1" t="s">
         <v>737</v>
       </c>
@@ -11012,7 +11015,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A802" s="1" t="s">
         <v>583</v>
       </c>
@@ -11020,7 +11023,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A803" s="1" t="s">
         <v>1019</v>
       </c>
@@ -11028,7 +11031,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A804" s="1" t="s">
         <v>774</v>
       </c>
@@ -11036,7 +11039,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A805" s="1" t="s">
         <v>36</v>
       </c>
@@ -11044,7 +11047,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A806" s="1" t="s">
         <v>37</v>
       </c>
@@ -11052,7 +11055,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A807" s="1" t="s">
         <v>421</v>
       </c>
@@ -11060,7 +11063,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A808" s="1" t="s">
         <v>297</v>
       </c>
@@ -11068,7 +11071,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A809" s="1" t="s">
         <v>490</v>
       </c>
@@ -11076,7 +11079,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A810" s="1" t="s">
         <v>25</v>
       </c>
@@ -11084,7 +11087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A811" s="1" t="s">
         <v>108</v>
       </c>
@@ -11092,7 +11095,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A812" s="1" t="s">
         <v>907</v>
       </c>
@@ -11100,7 +11103,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A813" s="1" t="s">
         <v>280</v>
       </c>
@@ -11108,7 +11111,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A814" s="1" t="s">
         <v>307</v>
       </c>
@@ -11116,7 +11119,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A815" s="1" t="s">
         <v>593</v>
       </c>
@@ -11124,7 +11127,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A816" s="1" t="s">
         <v>603</v>
       </c>
@@ -11132,7 +11135,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A817" s="1" t="s">
         <v>322</v>
       </c>
@@ -11140,7 +11143,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A818" s="1" t="s">
         <v>546</v>
       </c>
@@ -11148,7 +11151,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A819" s="1" t="s">
         <v>9</v>
       </c>
@@ -11156,7 +11159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A820" s="1" t="s">
         <v>328</v>
       </c>
@@ -11164,7 +11167,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A821" s="1" t="s">
         <v>596</v>
       </c>
@@ -11172,7 +11175,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A822" s="1" t="s">
         <v>851</v>
       </c>
@@ -11180,7 +11183,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A823" s="1" t="s">
         <v>852</v>
       </c>
@@ -11188,7 +11191,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A824" s="1" t="s">
         <v>770</v>
       </c>
@@ -11196,7 +11199,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A825" s="1" t="s">
         <v>555</v>
       </c>
@@ -11204,7 +11207,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A826" s="1" t="s">
         <v>419</v>
       </c>
@@ -11212,7 +11215,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A827" s="1" t="s">
         <v>420</v>
       </c>
@@ -11220,7 +11223,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A828" s="1" t="s">
         <v>134</v>
       </c>
@@ -11228,7 +11231,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A829" s="1" t="s">
         <v>793</v>
       </c>
@@ -11236,7 +11239,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A830" s="1" t="s">
         <v>773</v>
       </c>
@@ -11244,7 +11247,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A831" s="1" t="s">
         <v>637</v>
       </c>
@@ -11252,7 +11255,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A832" s="1" t="s">
         <v>733</v>
       </c>
@@ -11260,7 +11263,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A833" s="1" t="s">
         <v>515</v>
       </c>
@@ -11268,7 +11271,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A834" s="1" t="s">
         <v>45</v>
       </c>
@@ -11276,7 +11279,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A835" s="1" t="s">
         <v>856</v>
       </c>
@@ -11284,7 +11287,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A836" s="1" t="s">
         <v>857</v>
       </c>
@@ -11292,7 +11295,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A837" s="1" t="s">
         <v>309</v>
       </c>
@@ -11300,7 +11303,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A838" s="1" t="s">
         <v>869</v>
       </c>
@@ -11308,7 +11311,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A839" s="1" t="s">
         <v>591</v>
       </c>
@@ -11316,7 +11319,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A840" s="1" t="s">
         <v>785</v>
       </c>
@@ -11324,7 +11327,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A841" s="1" t="s">
         <v>365</v>
       </c>
@@ -11332,7 +11335,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A842" s="1" t="s">
         <v>604</v>
       </c>
@@ -11340,7 +11343,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A843" s="1" t="s">
         <v>883</v>
       </c>
@@ -11348,7 +11351,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A844" s="1" t="s">
         <v>747</v>
       </c>
@@ -11356,7 +11359,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A845" s="1" t="s">
         <v>528</v>
       </c>
@@ -11364,7 +11367,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A846" s="1" t="s">
         <v>516</v>
       </c>
@@ -11372,7 +11375,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A847" s="1" t="s">
         <v>488</v>
       </c>
@@ -11380,7 +11383,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A848" s="1" t="s">
         <v>109</v>
       </c>
@@ -11388,7 +11391,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A849" s="1" t="s">
         <v>300</v>
       </c>
@@ -11396,7 +11399,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A850" s="1" t="s">
         <v>301</v>
       </c>
@@ -11404,7 +11407,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A851" s="1" t="s">
         <v>99</v>
       </c>
@@ -11412,7 +11415,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A852" s="1" t="s">
         <v>205</v>
       </c>
@@ -11420,7 +11423,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A853" s="1" t="s">
         <v>107</v>
       </c>
@@ -11428,7 +11431,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A854" s="1" t="s">
         <v>159</v>
       </c>
@@ -11436,7 +11439,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A855" s="1" t="s">
         <v>599</v>
       </c>
@@ -11444,7 +11447,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A856" s="1" t="s">
         <v>663</v>
       </c>
@@ -11452,7 +11455,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A857" s="1" t="s">
         <v>853</v>
       </c>
@@ -11460,7 +11463,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A858" s="1" t="s">
         <v>854</v>
       </c>
@@ -11468,7 +11471,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A859" s="1" t="s">
         <v>606</v>
       </c>
@@ -11476,7 +11479,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A860" s="1" t="s">
         <v>47</v>
       </c>
@@ -11484,7 +11487,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A861" s="1" t="s">
         <v>38</v>
       </c>
@@ -11492,7 +11495,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A862" s="1" t="s">
         <v>39</v>
       </c>
@@ -11500,7 +11503,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A863" s="1" t="s">
         <v>1025</v>
       </c>
@@ -11508,7 +11511,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A864" s="1" t="s">
         <v>119</v>
       </c>
@@ -11516,7 +11519,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A865" s="1" t="s">
         <v>775</v>
       </c>
@@ -11524,7 +11527,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A866" s="1" t="s">
         <v>128</v>
       </c>
@@ -11532,7 +11535,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A867" s="1" t="s">
         <v>778</v>
       </c>
@@ -11540,7 +11543,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A868" s="1" t="s">
         <v>586</v>
       </c>
@@ -11548,7 +11551,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A869" s="1" t="s">
         <v>609</v>
       </c>
@@ -11556,7 +11559,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A870" s="1" t="s">
         <v>610</v>
       </c>
@@ -11564,7 +11567,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A871" s="1" t="s">
         <v>408</v>
       </c>
@@ -11572,7 +11575,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A872" s="1" t="s">
         <v>20</v>
       </c>
@@ -11580,7 +11583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A873" s="1" t="s">
         <v>400</v>
       </c>
@@ -11588,7 +11591,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A874" s="1" t="s">
         <v>203</v>
       </c>
@@ -11596,7 +11599,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A875" s="1" t="s">
         <v>100</v>
       </c>
@@ -11604,7 +11607,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A876" s="1" t="s">
         <v>670</v>
       </c>
@@ -11612,7 +11615,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A877" s="1" t="s">
         <v>412</v>
       </c>
@@ -11620,7 +11623,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A878" s="1" t="s">
         <v>611</v>
       </c>
@@ -11628,7 +11631,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A879" s="1" t="s">
         <v>862</v>
       </c>
@@ -11636,7 +11639,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A880" s="1" t="s">
         <v>863</v>
       </c>
@@ -11644,7 +11647,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A881" s="1" t="s">
         <v>382</v>
       </c>
@@ -11652,7 +11655,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A882" s="1" t="s">
         <v>174</v>
       </c>
@@ -11660,7 +11663,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A883" s="1" t="s">
         <v>628</v>
       </c>
@@ -11668,7 +11671,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A884" s="1" t="s">
         <v>1026</v>
       </c>
@@ -11676,7 +11679,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A885" s="1" t="s">
         <v>607</v>
       </c>
@@ -11684,7 +11687,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A886" s="1" t="s">
         <v>53</v>
       </c>
@@ -11692,7 +11695,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A887" s="1" t="s">
         <v>592</v>
       </c>
@@ -11700,7 +11703,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A888" s="1" t="s">
         <v>57</v>
       </c>
@@ -11708,7 +11711,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A889" s="1" t="s">
         <v>776</v>
       </c>
@@ -11716,7 +11719,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="890" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A890" s="1" t="s">
         <v>625</v>
       </c>
@@ -11724,7 +11727,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="891" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A891" s="1" t="s">
         <v>608</v>
       </c>
@@ -11732,7 +11735,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="892" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A892" s="1" t="s">
         <v>168</v>
       </c>
@@ -11740,7 +11743,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="893" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A893" s="1" t="s">
         <v>491</v>
       </c>
@@ -11748,7 +11751,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A894" s="1" t="s">
         <v>294</v>
       </c>
@@ -11756,7 +11759,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A895" s="1" t="s">
         <v>477</v>
       </c>
@@ -11764,7 +11767,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A896" s="1" t="s">
         <v>990</v>
       </c>
@@ -11772,7 +11775,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="897" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A897" s="1" t="s">
         <v>165</v>
       </c>
@@ -11780,7 +11783,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A898" s="1" t="s">
         <v>112</v>
       </c>
@@ -11788,7 +11791,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="899" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A899" s="1" t="s">
         <v>15</v>
       </c>
@@ -11796,7 +11799,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="900" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A900" s="1" t="s">
         <v>696</v>
       </c>
@@ -11804,7 +11807,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A901" s="1" t="s">
         <v>584</v>
       </c>
@@ -11812,7 +11815,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="902" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A902" s="1" t="s">
         <v>23</v>
       </c>
@@ -11820,7 +11823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="903" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A903" s="1" t="s">
         <v>795</v>
       </c>
@@ -11828,7 +11831,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A904" s="1" t="s">
         <v>612</v>
       </c>
@@ -11836,7 +11839,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="905" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A905" s="1" t="s">
         <v>746</v>
       </c>
@@ -11844,7 +11847,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A906" s="1" t="s">
         <v>18</v>
       </c>
@@ -11852,7 +11855,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="907" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A907" s="1" t="s">
         <v>884</v>
       </c>
@@ -11860,7 +11863,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="908" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A908" s="1" t="s">
         <v>371</v>
       </c>
@@ -11868,7 +11871,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="909" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A909" s="1" t="s">
         <v>573</v>
       </c>
@@ -11876,7 +11879,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A910" s="1" t="s">
         <v>10</v>
       </c>
@@ -11884,7 +11887,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="911" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A911" s="1" t="s">
         <v>648</v>
       </c>
@@ -11892,7 +11895,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="912" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A912" s="1" t="s">
         <v>933</v>
       </c>
@@ -11900,7 +11903,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="913" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A913" s="1" t="s">
         <v>645</v>
       </c>
@@ -11908,7 +11911,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="914" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A914" s="1" t="s">
         <v>247</v>
       </c>
@@ -11916,7 +11919,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="915" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A915" s="1" t="s">
         <v>311</v>
       </c>
@@ -11924,7 +11927,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="916" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A916" s="1" t="s">
         <v>271</v>
       </c>
@@ -11932,7 +11935,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="917" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A917" s="1" t="s">
         <v>537</v>
       </c>
@@ -11940,7 +11943,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="918" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A918" s="1" t="s">
         <v>849</v>
       </c>
@@ -11948,7 +11951,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="919" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A919" s="1" t="s">
         <v>504</v>
       </c>
@@ -11956,7 +11959,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="920" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A920" s="1" t="s">
         <v>556</v>
       </c>
@@ -11964,7 +11967,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="921" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A921" s="1" t="s">
         <v>967</v>
       </c>
@@ -11972,7 +11975,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="922" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A922" s="1" t="s">
         <v>880</v>
       </c>
@@ -11980,7 +11983,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="923" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A923" s="1" t="s">
         <v>881</v>
       </c>
@@ -11988,7 +11991,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="924" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A924" s="1" t="s">
         <v>848</v>
       </c>
@@ -11996,7 +11999,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="925" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A925" s="1" t="s">
         <v>509</v>
       </c>
@@ -12004,7 +12007,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="926" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A926" s="1" t="s">
         <v>597</v>
       </c>
@@ -12012,7 +12015,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="927" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A927" s="1" t="s">
         <v>751</v>
       </c>
@@ -12020,7 +12023,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="928" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A928" s="1" t="s">
         <v>229</v>
       </c>
@@ -12028,7 +12031,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="929" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A929" s="1" t="s">
         <v>230</v>
       </c>
@@ -12036,7 +12039,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="930" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A930" s="1" t="s">
         <v>624</v>
       </c>
@@ -12044,7 +12047,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A931" s="1" t="s">
         <v>870</v>
       </c>
@@ -12052,7 +12055,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A932" s="1" t="s">
         <v>871</v>
       </c>
@@ -12060,7 +12063,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="933" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A933" s="1" t="s">
         <v>185</v>
       </c>
@@ -12068,7 +12071,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="934" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A934" s="1" t="s">
         <v>180</v>
       </c>
@@ -12076,7 +12079,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A935" s="1" t="s">
         <v>598</v>
       </c>
@@ -12084,7 +12087,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="936" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A936" s="1" t="s">
         <v>864</v>
       </c>
@@ -12092,7 +12095,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A937" s="1" t="s">
         <v>533</v>
       </c>
@@ -12100,7 +12103,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="938" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A938" s="1" t="s">
         <v>525</v>
       </c>
@@ -12108,7 +12111,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A939" s="1" t="s">
         <v>327</v>
       </c>
@@ -12116,7 +12119,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="940" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A940" s="1" t="s">
         <v>364</v>
       </c>
@@ -12124,7 +12127,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A941" s="1" t="s">
         <v>410</v>
       </c>
@@ -12132,7 +12135,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="942" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A942" s="1" t="s">
         <v>602</v>
       </c>
@@ -12140,7 +12143,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A943" s="1" t="s">
         <v>326</v>
       </c>
@@ -12148,7 +12151,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A944" s="1" t="s">
         <v>298</v>
       </c>
@@ -12156,7 +12159,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A945" s="1" t="s">
         <v>299</v>
       </c>
@@ -12164,7 +12167,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A946" s="1" t="s">
         <v>600</v>
       </c>
@@ -12172,7 +12175,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A947" s="1" t="s">
         <v>605</v>
       </c>
@@ -12180,7 +12183,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A948" s="1" t="s">
         <v>120</v>
       </c>
@@ -12188,7 +12191,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A949" s="1" t="s">
         <v>176</v>
       </c>
@@ -12196,7 +12199,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A950" s="1" t="s">
         <v>705</v>
       </c>
@@ -12204,7 +12207,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A951" s="1" t="s">
         <v>872</v>
       </c>
@@ -12212,7 +12215,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A952" s="1" t="s">
         <v>385</v>
       </c>
@@ -12220,7 +12223,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A953" s="1" t="s">
         <v>386</v>
       </c>
@@ -12228,7 +12231,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A954" s="1" t="s">
         <v>254</v>
       </c>
@@ -12236,7 +12239,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A955" s="1" t="s">
         <v>699</v>
       </c>
@@ -12244,7 +12247,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A956" s="1" t="s">
         <v>121</v>
       </c>
@@ -12252,7 +12255,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A957" s="1" t="s">
         <v>695</v>
       </c>
@@ -12260,7 +12263,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="958" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A958" s="1" t="s">
         <v>620</v>
       </c>
@@ -12268,7 +12271,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A959" s="1" t="s">
         <v>17</v>
       </c>
@@ -12276,7 +12279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A960" s="1" t="s">
         <v>601</v>
       </c>
@@ -12284,7 +12287,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="961" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A961" s="1" t="s">
         <v>155</v>
       </c>
@@ -12292,7 +12295,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="962" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A962" s="1" t="s">
         <v>156</v>
       </c>
@@ -12300,7 +12303,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="963" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A963" s="1" t="s">
         <v>886</v>
       </c>
@@ -12308,7 +12311,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="964" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A964" s="1" t="s">
         <v>518</v>
       </c>
@@ -12316,7 +12319,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="965" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A965" s="1" t="s">
         <v>716</v>
       </c>
@@ -12324,7 +12327,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="966" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A966" s="1" t="s">
         <v>506</v>
       </c>
@@ -12332,7 +12335,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="967" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A967" s="1" t="s">
         <v>126</v>
       </c>
@@ -12340,7 +12343,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="968" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A968" s="1" t="s">
         <v>802</v>
       </c>
@@ -12348,7 +12351,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="969" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A969" s="1" t="s">
         <v>354</v>
       </c>
@@ -12356,7 +12359,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="970" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A970" s="1" t="s">
         <v>243</v>
       </c>
@@ -12364,7 +12367,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="971" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A971" s="1" t="s">
         <v>913</v>
       </c>
@@ -12372,7 +12375,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="972" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A972" s="1" t="s">
         <v>914</v>
       </c>
@@ -12380,7 +12383,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="973" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A973" s="1" t="s">
         <v>622</v>
       </c>
@@ -12388,7 +12391,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="974" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A974" s="1" t="s">
         <v>535</v>
       </c>
@@ -12396,7 +12399,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="975" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A975" s="1" t="s">
         <v>66</v>
       </c>
@@ -12404,7 +12407,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="976" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A976" s="1" t="s">
         <v>67</v>
       </c>
@@ -12412,7 +12415,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="977" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A977" s="1" t="s">
         <v>846</v>
       </c>
@@ -12420,7 +12423,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="978" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A978" s="1" t="s">
         <v>847</v>
       </c>
@@ -12428,7 +12431,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="979" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A979" s="1" t="s">
         <v>915</v>
       </c>
@@ -12436,7 +12439,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="980" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A980" s="1" t="s">
         <v>916</v>
       </c>
@@ -12444,7 +12447,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="981" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A981" s="1" t="s">
         <v>866</v>
       </c>
@@ -12452,7 +12455,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="982" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A982" s="1" t="s">
         <v>244</v>
       </c>
@@ -12460,7 +12463,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="983" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A983" s="1" t="s">
         <v>210</v>
       </c>
@@ -12468,7 +12471,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="984" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A984" s="1" t="s">
         <v>113</v>
       </c>
@@ -12476,7 +12479,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="985" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A985" s="1" t="s">
         <v>114</v>
       </c>
@@ -12484,7 +12487,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="986" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A986" s="1" t="s">
         <v>757</v>
       </c>
@@ -12492,7 +12495,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="987" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A987" s="1" t="s">
         <v>397</v>
       </c>
@@ -12500,7 +12503,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="988" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A988" s="1" t="s">
         <v>222</v>
       </c>
@@ -12508,7 +12511,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="989" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A989" s="1" t="s">
         <v>13</v>
       </c>
@@ -12516,7 +12519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="990" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A990" s="1" t="s">
         <v>721</v>
       </c>
@@ -12524,7 +12527,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="991" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A991" s="1" t="s">
         <v>440</v>
       </c>
@@ -12532,7 +12535,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="992" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A992" s="1" t="s">
         <v>554</v>
       </c>
@@ -12540,7 +12543,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="993" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A993" s="1" t="s">
         <v>531</v>
       </c>
@@ -12548,7 +12551,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="994" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A994" s="1" t="s">
         <v>662</v>
       </c>
@@ -12556,7 +12559,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="995" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A995" s="1" t="s">
         <v>867</v>
       </c>
@@ -12564,7 +12567,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="996" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A996" s="1" t="s">
         <v>529</v>
       </c>
@@ -12572,7 +12575,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="997" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A997" s="1" t="s">
         <v>175</v>
       </c>
@@ -12580,7 +12583,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="998" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A998" s="1" t="s">
         <v>137</v>
       </c>
@@ -12588,7 +12591,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="999" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A999" s="1" t="s">
         <v>594</v>
       </c>
@@ -12596,7 +12599,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1000" s="1" t="s">
         <v>194</v>
       </c>
@@ -12604,7 +12607,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1001" s="1" t="s">
         <v>661</v>
       </c>
@@ -12612,7 +12615,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1002" s="1" t="s">
         <v>2</v>
       </c>
@@ -12620,7 +12623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1003" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1003" s="1" t="s">
         <v>711</v>
       </c>
@@ -12628,7 +12631,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="1004" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1004" s="1" t="s">
         <v>484</v>
       </c>
@@ -12636,7 +12639,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="1005" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1005" s="1" t="s">
         <v>690</v>
       </c>
@@ -12644,7 +12647,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="1006" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1006" s="1" t="s">
         <v>532</v>
       </c>
@@ -12652,7 +12655,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="1007" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1007" s="1" t="s">
         <v>389</v>
       </c>
@@ -12660,7 +12663,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="1008" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1008" s="1" t="s">
         <v>237</v>
       </c>
@@ -12668,7 +12671,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="1009" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1009" s="1" t="s">
         <v>238</v>
       </c>
@@ -12676,7 +12679,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="1010" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1010" s="1" t="s">
         <v>414</v>
       </c>
@@ -12684,7 +12687,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="1011" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1011" s="1" t="s">
         <v>3</v>
       </c>
@@ -12692,7 +12695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1012" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1012" s="1" t="s">
         <v>7</v>
       </c>
@@ -12700,7 +12703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1013" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1013" s="1" t="s">
         <v>959</v>
       </c>
@@ -12708,7 +12711,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="1014" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1014" s="1" t="s">
         <v>481</v>
       </c>
@@ -12716,7 +12719,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="1015" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1015" s="1" t="s">
         <v>68</v>
       </c>
@@ -12724,7 +12727,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="1016" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1016" s="1" t="s">
         <v>69</v>
       </c>
@@ -12732,7 +12735,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="1017" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1017" s="1" t="s">
         <v>139</v>
       </c>
@@ -12740,7 +12743,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="1018" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1018" s="1" t="s">
         <v>141</v>
       </c>
@@ -12748,7 +12751,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="1019" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1019" s="1" t="s">
         <v>52</v>
       </c>
@@ -12756,7 +12759,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="1020" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1020" s="1" t="s">
         <v>304</v>
       </c>
@@ -12764,7 +12767,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="1021" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1021" s="1" t="s">
         <v>305</v>
       </c>
@@ -12772,7 +12775,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="1022" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1022" s="1" t="s">
         <v>934</v>
       </c>
@@ -12780,7 +12783,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="1023" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1023" s="1" t="s">
         <v>70</v>
       </c>
@@ -12788,7 +12791,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="1024" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1024" s="1" t="s">
         <v>71</v>
       </c>
@@ -12796,7 +12799,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="1025" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1025" s="1" t="s">
         <v>325</v>
       </c>
@@ -12804,7 +12807,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="1026" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1026" s="1" t="s">
         <v>148</v>
       </c>
@@ -12812,7 +12815,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="1027" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1027" s="1" t="s">
         <v>974</v>
       </c>
@@ -12820,7 +12823,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="1028" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1028" s="1" t="s">
         <v>1000</v>
       </c>
@@ -12828,7 +12831,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="1029" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1029" s="1" t="s">
         <v>831</v>
       </c>
@@ -12836,18 +12839,173 @@
         <v>831</v>
       </c>
     </row>
-    <row r="1030" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1030" s="1" t="s">
         <v>1230</v>
       </c>
       <c r="B1030" s="1" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1031" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1031" s="2" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1032" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1032" s="2" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1033" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1033" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1034" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1034" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1035" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1035" s="2" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1036" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1036" s="2" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1037" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1037" s="2" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1038" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1038" s="2" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1039" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1039" s="2" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1040" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1040" s="2" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1041" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1041" s="2" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1042" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1042" s="2" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1043" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B1043" s="2" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1044" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B1044" s="2" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1045" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1045" s="2" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1046" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B1046" s="2" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1047" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B1047" s="2" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1048" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B1048" s="2" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1049" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B1049" s="2" t="s">
+        <v>1198</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1030" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1031:B1049">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
